--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/St6gal1-Cd22.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/St6gal1-Cd22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.327185666666666</v>
+        <v>4.931298666666667</v>
       </c>
       <c r="H2">
-        <v>9.981556999999999</v>
+        <v>14.793896</v>
       </c>
       <c r="I2">
-        <v>0.1584084717220711</v>
+        <v>0.243258826942244</v>
       </c>
       <c r="J2">
-        <v>0.1584084717220711</v>
+        <v>0.243258826942244</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1762576666666666</v>
+        <v>15.40797466666667</v>
       </c>
       <c r="N2">
-        <v>0.5287729999999999</v>
+        <v>46.223924</v>
       </c>
       <c r="O2">
-        <v>0.0120542800396006</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.0120542800396006</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.5864419821734443</v>
+        <v>75.98132492976711</v>
       </c>
       <c r="R2">
-        <v>5.277977839560998</v>
+        <v>683.831924367904</v>
       </c>
       <c r="S2">
-        <v>0.001909500078782998</v>
+        <v>0.243258826942244</v>
       </c>
       <c r="T2">
-        <v>0.001909500078782998</v>
+        <v>0.243258826942244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.327185666666666</v>
+        <v>2.442036</v>
       </c>
       <c r="H3">
-        <v>9.981556999999999</v>
+        <v>7.326108</v>
       </c>
       <c r="I3">
-        <v>0.1584084717220711</v>
+        <v>0.1204645779673042</v>
       </c>
       <c r="J3">
-        <v>0.1584084717220711</v>
+        <v>0.1204645779673042</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.445741</v>
+        <v>15.40797466666667</v>
       </c>
       <c r="N3">
-        <v>43.337223</v>
+        <v>46.223924</v>
       </c>
       <c r="O3">
-        <v>0.9879457199603994</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9879457199603994</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>48.06366239957899</v>
+        <v>37.626828823088</v>
       </c>
       <c r="R3">
-        <v>432.572961596211</v>
+        <v>338.641459407792</v>
       </c>
       <c r="S3">
-        <v>0.1564989716432881</v>
+        <v>0.1204645779673042</v>
       </c>
       <c r="T3">
-        <v>0.1564989716432881</v>
+        <v>0.1204645779673042</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.442036</v>
+        <v>3.440487666666666</v>
       </c>
       <c r="H4">
-        <v>7.326108</v>
+        <v>10.321463</v>
       </c>
       <c r="I4">
-        <v>0.1162661869236271</v>
+        <v>0.1697177661454274</v>
       </c>
       <c r="J4">
-        <v>0.1162661869236271</v>
+        <v>0.1697177661454274</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1762576666666666</v>
+        <v>15.40797466666667</v>
       </c>
       <c r="N4">
-        <v>0.5287729999999999</v>
+        <v>46.223924</v>
       </c>
       <c r="O4">
-        <v>0.0120542800396006</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.0120542800396006</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.4304275672759999</v>
+        <v>53.01094680897911</v>
       </c>
       <c r="R4">
-        <v>3.873848105483999</v>
+        <v>477.098521280812</v>
       </c>
       <c r="S4">
-        <v>0.001401505176313951</v>
+        <v>0.1697177661454274</v>
       </c>
       <c r="T4">
-        <v>0.001401505176313951</v>
+        <v>0.1697177661454274</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.442036</v>
+        <v>9.457995666666667</v>
       </c>
       <c r="H5">
-        <v>7.326108</v>
+        <v>28.373987</v>
       </c>
       <c r="I5">
-        <v>0.1162661869236271</v>
+        <v>0.4665588289450244</v>
       </c>
       <c r="J5">
-        <v>0.1162661869236271</v>
+        <v>0.4665588289450244</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.445741</v>
+        <v>15.40797466666667</v>
       </c>
       <c r="N5">
-        <v>43.337223</v>
+        <v>46.223924</v>
       </c>
       <c r="O5">
-        <v>0.9879457199603994</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.9879457199603994</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>35.277019568676</v>
+        <v>145.7285576294431</v>
       </c>
       <c r="R5">
-        <v>317.493176118084</v>
+        <v>1311.557018664988</v>
       </c>
       <c r="S5">
-        <v>0.1148646817473132</v>
+        <v>0.4665588289450244</v>
       </c>
       <c r="T5">
-        <v>0.1148646817473132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>4.592005666666666</v>
-      </c>
-      <c r="H6">
-        <v>13.776017</v>
-      </c>
-      <c r="I6">
-        <v>0.2186269937032139</v>
-      </c>
-      <c r="J6">
-        <v>0.2186269937032139</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1762576666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.5287729999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.0120542800396006</v>
-      </c>
-      <c r="P6">
-        <v>0.0120542800396006</v>
-      </c>
-      <c r="Q6">
-        <v>0.8093762041267776</v>
-      </c>
-      <c r="R6">
-        <v>7.284385837140999</v>
-      </c>
-      <c r="S6">
-        <v>0.002635391006314538</v>
-      </c>
-      <c r="T6">
-        <v>0.002635391006314538</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>4.592005666666666</v>
-      </c>
-      <c r="H7">
-        <v>13.776017</v>
-      </c>
-      <c r="I7">
-        <v>0.2186269937032139</v>
-      </c>
-      <c r="J7">
-        <v>0.2186269937032139</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>14.445741</v>
-      </c>
-      <c r="N7">
-        <v>43.337223</v>
-      </c>
-      <c r="O7">
-        <v>0.9879457199603994</v>
-      </c>
-      <c r="P7">
-        <v>0.9879457199603994</v>
-      </c>
-      <c r="Q7">
-        <v>66.33492453119899</v>
-      </c>
-      <c r="R7">
-        <v>597.014320780791</v>
-      </c>
-      <c r="S7">
-        <v>0.2159916026968993</v>
-      </c>
-      <c r="T7">
-        <v>0.2159916026968993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>10.64260933333333</v>
-      </c>
-      <c r="H8">
-        <v>31.927828</v>
-      </c>
-      <c r="I8">
-        <v>0.5066983476510879</v>
-      </c>
-      <c r="J8">
-        <v>0.5066983476510878</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.1762576666666666</v>
-      </c>
-      <c r="N8">
-        <v>0.5287729999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.0120542800396006</v>
-      </c>
-      <c r="P8">
-        <v>0.0120542800396006</v>
-      </c>
-      <c r="Q8">
-        <v>1.875841488338222</v>
-      </c>
-      <c r="R8">
-        <v>16.882573395044</v>
-      </c>
-      <c r="S8">
-        <v>0.006107883778189117</v>
-      </c>
-      <c r="T8">
-        <v>0.006107883778189114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>10.64260933333333</v>
-      </c>
-      <c r="H9">
-        <v>31.927828</v>
-      </c>
-      <c r="I9">
-        <v>0.5066983476510879</v>
-      </c>
-      <c r="J9">
-        <v>0.5066983476510878</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>14.445741</v>
-      </c>
-      <c r="N9">
-        <v>43.337223</v>
-      </c>
-      <c r="O9">
-        <v>0.9879457199603994</v>
-      </c>
-      <c r="P9">
-        <v>0.9879457199603994</v>
-      </c>
-      <c r="Q9">
-        <v>153.740377993516</v>
-      </c>
-      <c r="R9">
-        <v>1383.663401941644</v>
-      </c>
-      <c r="S9">
-        <v>0.5005904638728987</v>
-      </c>
-      <c r="T9">
-        <v>0.5005904638728986</v>
+        <v>0.4665588289450244</v>
       </c>
     </row>
   </sheetData>
